--- a/Discharge/Station3_2022-06-07_1132.xlsx
+++ b/Discharge/Station3_2022-06-07_1132.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{58FA0228-F106-6C4B-8628-4119A1CCAC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B9D4FC5-68C5-7C4A-9DE0-E6FD240397F0}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{58FA0228-F106-6C4B-8628-4119A1CCAC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4115AEA-5DB9-4B07-B2C9-E25AA9451C4B}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15280" xr2:uid="{C3F748BB-9892-1B41-A56C-A02529A5FC76}"/>
+    <workbookView xWindow="1140" yWindow="1070" windowWidth="14640" windowHeight="9730" xr2:uid="{C3F748BB-9892-1B41-A56C-A02529A5FC76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -56,6 +55,12 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -415,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B3C29D-88D8-054C-8056-CB8190ADDBC2}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +447,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -462,8 +479,24 @@
         <f>SUM(E2:E12)</f>
         <v>3.1700000000000001E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>1.8499999999999996E-2</v>
+      </c>
+      <c r="J2">
+        <f>H2</f>
+        <v>1.8499999999999996E-2</v>
+      </c>
+      <c r="K2">
+        <f>F2</f>
+        <v>3.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45</v>
       </c>
@@ -482,8 +515,12 @@
         <v>1.7999999999999974E-4</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>4.4999999999999936E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>50</v>
       </c>
@@ -502,8 +539,12 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="3">(D4-D3)*B4/100</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>55</v>
       </c>
@@ -522,8 +563,12 @@
         <v>1.1499999999999987E-3</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999932E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>60</v>
       </c>
@@ -542,8 +587,12 @@
         <v>8.4000000000000069E-4</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>65</v>
       </c>
@@ -562,8 +611,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -576,8 +629,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -588,8 +645,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -600,8 +661,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -612,8 +677,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -624,8 +693,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -636,8 +709,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -648,8 +725,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -660,8 +741,12 @@
         <v>6</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -673,7 +758,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -685,7 +770,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -697,7 +782,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
